--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\LifeHack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757EE47A-3A0F-44B2-8157-C30FD56912FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Other Hardware" sheetId="6" r:id="rId6"/>
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="516">
   <si>
     <t>Parts List</t>
   </si>
@@ -1576,12 +1575,21 @@
   </si>
   <si>
     <t>DMSP900R</t>
+  </si>
+  <si>
+    <t>Small Positive lens</t>
+  </si>
+  <si>
+    <t>AC254-100-A</t>
+  </si>
+  <si>
+    <t>f = 100 mm, Ø1" Achromatic Doublet, ARC: 400 - 700 nm </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -2031,7 +2039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -3531,11 +3539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3708,7 +3716,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3945,7 +3953,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4078,304 +4086,307 @@
         <v>152</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="14"/>
+    </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="6"/>
+        <v>513</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D32" s="6">
-        <v>122.55</v>
+        <v>5.95</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" ref="F32:F38" si="2">D32*E32</f>
-        <v>122.55</v>
+        <f t="shared" ref="F32" si="2">D32*E32</f>
+        <v>5.95</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D33" s="6">
-        <v>67.16</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="2"/>
-        <v>67.16</v>
+        <f t="shared" ref="F33:F37" si="3">D33*E33</f>
+        <v>39.770000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D34" s="6">
-        <v>5.95</v>
+        <v>9.18</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="2"/>
-        <v>5.95</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D35" s="6">
-        <v>4.01</v>
+        <v>7.96</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="2"/>
-        <v>4.01</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D36" s="6">
-        <v>9.18</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>152</v>
+        <f t="shared" si="3"/>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D37" s="6">
-        <v>7.96</v>
+        <v>22.73</v>
       </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="3"/>
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="E38" s="19">
         <v>0</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="2"/>
+      <c r="F38" s="14">
+        <f>D38*E38</f>
         <v>0</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="6">
-        <v>22.73</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="2"/>
-        <v>22.73</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>494</v>
+      <c r="C39" t="s">
+        <v>514</v>
       </c>
       <c r="D39" s="6">
-        <v>3.86</v>
+        <v>60.87</v>
       </c>
       <c r="E39" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="14">
         <f>D39*E39</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="F40" s="6"/>
+        <v>60.87</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D42" s="6">
-        <v>81.97</v>
+        <v>122.55</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" ref="F42:F48" si="3">D42*E42</f>
-        <v>81.97</v>
+        <f t="shared" ref="F42:F48" si="4">D42*E42</f>
+        <v>122.55</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="D43" s="6">
-        <v>5.95</v>
+        <v>67.16</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="3"/>
-        <v>5.95</v>
+        <f t="shared" si="4"/>
+        <v>67.16</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D44" s="6">
-        <v>4.01</v>
+        <v>5.95</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="3"/>
-        <v>4.01</v>
+        <f t="shared" si="4"/>
+        <v>5.95</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D45" s="6">
-        <v>9.18</v>
+        <v>4.01</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>152</v>
+        <f t="shared" si="4"/>
+        <v>4.01</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="6">
-        <v>7.96</v>
+        <v>9.18</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G46" t="s">
@@ -4384,47 +4395,50 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D47" s="6">
-        <v>22.73</v>
+        <v>7.96</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="3"/>
-        <v>22.73</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D48" s="6">
-        <v>117.41</v>
+        <v>22.73</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="3"/>
-        <v>117.41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>495</v>
       </c>
@@ -4438,68 +4452,256 @@
         <v>3.86</v>
       </c>
       <c r="E49" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="14">
         <f>D49*E49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="6">
+        <v>81.97</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" ref="F52:F58" si="5">D52*E52</f>
+        <v>81.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="6">
+        <v>5.95</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="5"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="5"/>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="6">
+        <v>9.18</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="6">
+        <v>7.96</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="6">
+        <v>22.73</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="5"/>
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="6">
+        <v>117.41</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="5"/>
+        <v>117.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D59" s="6">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="E59" s="19">
+        <v>1</v>
+      </c>
+      <c r="F59" s="14">
+        <f>D59*E59</f>
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D62" s="6">
         <v>79.569999999999993</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6">
-        <f>D52*E52</f>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
+        <f>D62*E62</f>
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="D53" s="6"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="D63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="6">
-        <f>SUM(F3:F52)</f>
-        <v>1907.8800000000003</v>
+      <c r="F65" s="6">
+        <f>SUM(F3:F62)</f>
+        <v>2041.3900000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7192,7 +7394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -7927,7 +8129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8178,7 +8380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8607,7 +8809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="517">
   <si>
     <t>Parts List</t>
   </si>
@@ -1584,6 +1584,9 @@
   </si>
   <si>
     <t>f = 100 mm, Ø1" Achromatic Doublet, ARC: 400 - 700 nm </t>
+  </si>
+  <si>
+    <t>ASI</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -3542,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -4700,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4778,7 +4781,7 @@
         <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4799,7 +4802,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4820,7 +4823,7 @@
         <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4841,7 +4844,7 @@
         <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4862,7 +4865,7 @@
         <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4897,7 +4900,7 @@
         <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4919,7 +4922,7 @@
         <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D13">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
     <sheet name="Beam Expansion Module" sheetId="3" r:id="rId2"/>
     <sheet name="Main Body" sheetId="1" r:id="rId3"/>
     <sheet name="Focus Shifter" sheetId="7" r:id="rId4"/>
-    <sheet name="Image Autofocus" sheetId="8" r:id="rId5"/>
+    <sheet name="ImLock" sheetId="8" r:id="rId5"/>
     <sheet name="Other Hardware" sheetId="6" r:id="rId6"/>
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -1049,9 +1049,6 @@
     <t>453-886</t>
   </si>
   <si>
-    <t>microscope-pathA-imageAutofocus</t>
-  </si>
-  <si>
     <t>pathA-optics</t>
   </si>
   <si>
@@ -1340,9 +1337,6 @@
     <t>Focus Shifter (Also incuded in Main Body)</t>
   </si>
   <si>
-    <t>Image Autofocus (Also in Main Body)</t>
-  </si>
-  <si>
     <t>885-8172</t>
   </si>
   <si>
@@ -1587,6 +1581,12 @@
   </si>
   <si>
     <t>ASI</t>
+  </si>
+  <si>
+    <t>ImLock (Also in Main Body)</t>
+  </si>
+  <si>
+    <t>microscope-pathA-imageAutofocus (Imlock)</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -2869,7 +2869,7 @@
         <v>157</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>11</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>11</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>238</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>11</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>11</v>
@@ -3193,7 +3193,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3214,7 +3214,7 @@
         <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3845,13 +3845,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D17" s="6">
         <v>19.309999999999999</v>
@@ -4067,13 +4067,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D29" s="6">
         <v>3.86</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="6"/>
@@ -4239,13 +4239,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D38" s="6">
         <v>3.86</v>
@@ -4263,13 +4263,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D39" s="6">
         <v>60.87</v>
@@ -4443,13 +4443,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D49" s="6">
         <v>3.86</v>
@@ -4630,13 +4630,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D59" s="6">
         <v>3.86</v>
@@ -4703,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4781,7 +4781,7 @@
         <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4844,7 +4844,7 @@
         <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4865,7 +4865,7 @@
         <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>3015.27</v>
       </c>
       <c r="G9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -4900,7 +4900,7 @@
         <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4922,7 +4922,7 @@
         <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4935,18 +4935,18 @@
         <v>18047.43</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4959,7 +4959,7 @@
         <v>2250</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H14" s="10"/>
     </row>
@@ -4971,7 +4971,7 @@
         <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -5255,7 +5255,7 @@
         <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -5762,7 +5762,7 @@
         <v>214</v>
       </c>
       <c r="B63" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -5784,7 +5784,7 @@
         <v>214</v>
       </c>
       <c r="B64" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -6130,7 +6130,7 @@
         <v>120</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -6182,7 +6182,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
@@ -6195,7 +6195,7 @@
         <v>292</v>
       </c>
       <c r="C87" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -6519,10 +6519,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B106" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C106" t="s">
         <v>312</v>
@@ -6632,10 +6632,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C112" t="s">
         <v>312</v>
@@ -6653,13 +6653,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>426</v>
+      </c>
+      <c r="B113" t="s">
         <v>427</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>428</v>
-      </c>
-      <c r="C113" t="s">
-        <v>429</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B120" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C120" t="s">
         <v>312</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B121" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C121" t="s">
         <v>312</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B122" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C122" t="s">
         <v>312</v>
@@ -6871,27 +6871,27 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>337</v>
+        <v>516</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>338</v>
+      </c>
+      <c r="B126" t="s">
         <v>339</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>340</v>
-      </c>
-      <c r="C126" t="s">
-        <v>341</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -6907,10 +6907,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>341</v>
+      </c>
+      <c r="B127" t="s">
         <v>342</v>
-      </c>
-      <c r="B127" t="s">
-        <v>343</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B128" s="22" t="s">
         <v>297</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -6973,7 +6973,7 @@
         <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -6991,10 +6991,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B131" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -7034,10 +7034,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>346</v>
+      </c>
+      <c r="B133" t="s">
         <v>347</v>
-      </c>
-      <c r="B133" t="s">
-        <v>348</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B134" t="s">
         <v>93</v>
@@ -7080,20 +7080,20 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>350</v>
+      </c>
+      <c r="B137" t="s">
         <v>351</v>
       </c>
-      <c r="B137" t="s">
-        <v>352</v>
-      </c>
       <c r="C137" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -7109,13 +7109,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>352</v>
+      </c>
+      <c r="B138" t="s">
         <v>353</v>
       </c>
-      <c r="B138" t="s">
-        <v>354</v>
-      </c>
       <c r="C138" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -7131,13 +7131,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>354</v>
+      </c>
+      <c r="B139" t="s">
         <v>355</v>
       </c>
-      <c r="B139" t="s">
-        <v>356</v>
-      </c>
       <c r="C139" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -7157,17 +7157,17 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>357</v>
+      </c>
+      <c r="B142" t="s">
         <v>358</v>
-      </c>
-      <c r="B142" t="s">
-        <v>359</v>
       </c>
       <c r="C142" t="s">
         <v>57</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>359</v>
+      </c>
+      <c r="B143" t="s">
         <v>360</v>
-      </c>
-      <c r="B143" t="s">
-        <v>361</v>
       </c>
       <c r="C143" t="s">
         <v>57</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" t="s">
         <v>362</v>
-      </c>
-      <c r="B144" t="s">
-        <v>363</v>
       </c>
       <c r="C144" t="s">
         <v>57</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>363</v>
+      </c>
+      <c r="B145" t="s">
         <v>364</v>
-      </c>
-      <c r="B145" t="s">
-        <v>365</v>
       </c>
       <c r="C145" t="s">
         <v>57</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>365</v>
+      </c>
+      <c r="B146" t="s">
         <v>366</v>
-      </c>
-      <c r="B146" t="s">
-        <v>367</v>
       </c>
       <c r="C146" t="s">
         <v>57</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>367</v>
+      </c>
+      <c r="B147" t="s">
         <v>368</v>
-      </c>
-      <c r="B147" t="s">
-        <v>369</v>
       </c>
       <c r="C147" t="s">
         <v>57</v>
@@ -7296,10 +7296,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>369</v>
+      </c>
+      <c r="B148" t="s">
         <v>370</v>
-      </c>
-      <c r="B148" t="s">
-        <v>371</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -7318,10 +7318,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>371</v>
+      </c>
+      <c r="B149" t="s">
         <v>372</v>
-      </c>
-      <c r="B149" t="s">
-        <v>373</v>
       </c>
       <c r="C149" t="s">
         <v>57</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>373</v>
+      </c>
+      <c r="B150" t="s">
         <v>374</v>
-      </c>
-      <c r="B150" t="s">
-        <v>375</v>
       </c>
       <c r="C150" t="s">
         <v>57</v>
@@ -7362,10 +7362,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B151" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -7400,7 +7400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -7414,7 +7414,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7450,7 +7450,7 @@
         <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7774,10 +7774,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C22" t="s">
         <v>312</v>
@@ -7884,10 +7884,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C28" t="s">
         <v>312</v>
@@ -7905,13 +7905,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>426</v>
+      </c>
+      <c r="B29" t="s">
         <v>427</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>428</v>
-      </c>
-      <c r="C29" t="s">
-        <v>429</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8053,10 +8053,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C36" t="s">
         <v>312</v>
@@ -8075,10 +8075,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B37" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C37" t="s">
         <v>312</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B38" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C38" t="s">
         <v>312</v>
@@ -8135,9 +8135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8149,7 +8147,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -8179,13 +8177,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" t="s">
         <v>339</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>340</v>
-      </c>
-      <c r="C3" t="s">
-        <v>341</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8201,10 +8199,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" t="s">
         <v>342</v>
-      </c>
-      <c r="B4" t="s">
-        <v>343</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -8222,7 +8220,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>297</v>
@@ -8243,7 +8241,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
@@ -8267,7 +8265,7 @@
         <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -8285,10 +8283,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -8328,10 +8326,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" t="s">
         <v>347</v>
-      </c>
-      <c r="B10" t="s">
-        <v>348</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -8349,7 +8347,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8423,20 +8421,20 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>377</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>378</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8451,10 +8449,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C5" t="s">
         <v>312</v>
@@ -8473,10 +8471,10 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>380</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>381</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>312</v>
@@ -8494,10 +8492,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>382</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>383</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>312</v>
@@ -8515,10 +8513,10 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>384</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>312</v>
@@ -8536,13 +8534,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>387</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>388</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8557,10 +8555,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>390</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>312</v>
@@ -8585,17 +8583,17 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" t="s">
         <v>392</v>
-      </c>
-      <c r="B13" t="s">
-        <v>393</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -8613,10 +8611,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" t="s">
         <v>394</v>
-      </c>
-      <c r="B14" t="s">
-        <v>395</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -8634,10 +8632,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" t="s">
         <v>396</v>
-      </c>
-      <c r="B15" t="s">
-        <v>397</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -8655,10 +8653,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" t="s">
         <v>398</v>
-      </c>
-      <c r="B16" t="s">
-        <v>399</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -8682,7 +8680,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="14"/>
@@ -8690,13 +8688,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" t="s">
         <v>401</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>402</v>
-      </c>
-      <c r="C19" t="s">
-        <v>403</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -8711,13 +8709,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -8732,13 +8730,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" t="s">
         <v>405</v>
       </c>
-      <c r="B21" t="s">
-        <v>406</v>
-      </c>
       <c r="C21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8758,14 +8756,14 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -8849,14 +8847,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -8881,14 +8879,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -8906,7 +8904,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -8924,7 +8922,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -8941,7 +8939,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8958,7 +8956,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -8975,7 +8973,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8992,7 +8990,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -9009,7 +9007,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -9026,7 +9024,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -9043,7 +9041,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -9060,7 +9058,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -9077,7 +9075,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -9094,7 +9092,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -9111,7 +9109,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -9128,13 +9126,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B20" t="s">
         <v>312</v>
       </c>
       <c r="C20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" s="10">
         <v>19.3</v>
@@ -9149,12 +9147,12 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
@@ -9171,7 +9169,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -9188,7 +9186,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
@@ -9205,7 +9203,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -9222,7 +9220,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
@@ -9239,7 +9237,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
@@ -9256,7 +9254,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
@@ -9273,7 +9271,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -9290,13 +9288,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" t="s">
         <v>312</v>
       </c>
       <c r="C31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D31" s="10">
         <v>19.3</v>
@@ -9311,12 +9309,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -9333,7 +9331,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
@@ -9350,7 +9348,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B36" t="s">
         <v>93</v>
@@ -9367,7 +9365,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
@@ -9384,7 +9382,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -9401,7 +9399,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -9419,7 +9417,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -9436,13 +9434,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s">
         <v>312</v>
       </c>
       <c r="C41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D41" s="10">
         <v>19.3</v>
@@ -9457,14 +9455,14 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
@@ -9482,7 +9480,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -9500,7 +9498,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -9518,7 +9516,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -9536,7 +9534,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -9554,12 +9552,12 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -9576,7 +9574,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -9593,7 +9591,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -9610,7 +9608,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -9628,7 +9626,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -9650,20 +9648,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
         <v>312</v>
       </c>
       <c r="C58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D58" s="10">
         <v>10.66</v>
@@ -9678,13 +9676,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s">
         <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D59" s="10">
         <v>2.38</v>
@@ -9699,13 +9697,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s">
         <v>312</v>
       </c>
       <c r="C60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D60" s="10">
         <v>13.98</v>
@@ -9720,7 +9718,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D61" s="10"/>
       <c r="F61" s="10"/>
@@ -9728,7 +9726,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D62" s="10"/>
       <c r="F62" s="10"/>
@@ -9740,17 +9738,17 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>419</v>
+      </c>
+      <c r="B65" t="s">
         <v>420</v>
-      </c>
-      <c r="B65" t="s">
-        <v>421</v>
       </c>
       <c r="C65">
         <v>14130</v>
@@ -9768,10 +9766,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C66">
         <v>10035</v>
@@ -9789,10 +9787,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C67">
         <v>10034</v>
@@ -9810,10 +9808,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C68">
         <v>90051</v>
@@ -9831,10 +9829,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\LifeHack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHack\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306A5471-38FE-4911-91D9-048256CA3808}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Other Hardware" sheetId="6" r:id="rId6"/>
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="519">
   <si>
     <t>Parts List</t>
   </si>
@@ -914,9 +915,6 @@
     <t>CRISP-5 ASSEMBLY</t>
   </si>
   <si>
-    <t>DASI/CRISP-850</t>
-  </si>
-  <si>
     <t>zoom-tube-lens</t>
   </si>
   <si>
@@ -1058,9 +1056,6 @@
     <t>BFS-U3-51S5M-C</t>
   </si>
   <si>
-    <t>PointGrey</t>
-  </si>
-  <si>
     <t>Coarse ±1 mm XY Slip Plate Positioner</t>
   </si>
   <si>
@@ -1556,21 +1551,12 @@
     <t>Special Order (available on request)</t>
   </si>
   <si>
-    <t>Includes: Objective basket</t>
-  </si>
-  <si>
     <t>Best Form Lens, Ø1", f = 100 mm, ARC: 650-1050 nm</t>
   </si>
   <si>
-    <t>Include 940nm LED (no regulator)</t>
-  </si>
-  <si>
     <t>900nm Dichroic</t>
   </si>
   <si>
-    <t>DMSP900R</t>
-  </si>
-  <si>
     <t>Small Positive lens</t>
   </si>
   <si>
@@ -1587,12 +1573,33 @@
   </si>
   <si>
     <t>microscope-pathA-imageAutofocus (Imlock)</t>
+  </si>
+  <si>
+    <t>Include 850nm LED (no regulator)</t>
+  </si>
+  <si>
+    <t>FBH850-40</t>
+  </si>
+  <si>
+    <t>850nm Bandpass</t>
+  </si>
+  <si>
+    <t>DMLP900R</t>
+  </si>
+  <si>
+    <t>DASI/CRISP-940</t>
+  </si>
+  <si>
+    <t>FLIR</t>
+  </si>
+  <si>
+    <t>Includes: Objective basket if requested through Cairn research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -2042,32 +2049,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2085,7 +2092,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2107,11 +2114,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2119,7 +2126,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2141,7 +2148,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2163,7 +2170,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2185,7 +2192,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2207,7 +2214,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2229,7 +2236,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2252,12 +2259,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2273,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2288,7 +2295,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2310,7 +2317,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2332,7 +2339,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2354,11 +2361,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2373,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2388,7 +2395,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2410,7 +2417,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2432,7 +2439,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2454,7 +2461,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2476,15 +2483,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2492,7 +2499,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2514,7 +2521,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2538,7 +2545,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2560,7 +2567,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2582,7 +2589,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2604,21 +2611,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2681,7 +2688,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2702,7 +2709,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2723,31 +2730,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2768,7 +2775,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2789,7 +2796,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2810,7 +2817,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2831,7 +2838,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2852,11 +2859,11 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2864,12 +2871,12 @@
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>11</v>
@@ -2885,12 +2892,12 @@
         <v>45.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>11</v>
@@ -2906,9 +2913,9 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>238</v>
@@ -2927,12 +2934,12 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>11</v>
@@ -2948,12 +2955,12 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>11</v>
@@ -2969,7 +2976,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2977,14 +2984,14 @@
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3005,17 +3012,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3078,7 +3085,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3099,17 +3106,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3151,7 +3158,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3173,19 +3180,19 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3206,7 +3213,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3227,7 +3234,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3248,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -3269,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -3290,11 +3297,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>99</v>
       </c>
@@ -3302,7 +3309,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>100</v>
       </c>
@@ -3324,7 +3331,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
@@ -3346,7 +3353,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
@@ -3367,7 +3374,7 @@
         <v>15717.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>108</v>
       </c>
@@ -3409,18 +3416,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
@@ -3441,7 +3448,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>115</v>
       </c>
@@ -3483,7 +3490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>117</v>
       </c>
@@ -3504,29 +3511,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
@@ -3542,20 +3549,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3576,12 +3583,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
@@ -3602,7 +3609,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3623,17 +3630,17 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>124</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -3654,7 +3661,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -3675,7 +3682,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>129</v>
       </c>
@@ -3696,7 +3703,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>131</v>
       </c>
@@ -3717,7 +3724,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
@@ -3738,7 +3745,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -3759,7 +3766,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
@@ -3780,7 +3787,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
@@ -3801,7 +3808,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>141</v>
       </c>
@@ -3822,7 +3829,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -3843,15 +3850,15 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D17" s="6">
         <v>19.309999999999999</v>
@@ -3864,13 +3871,13 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>146</v>
       </c>
@@ -3891,7 +3898,7 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>148</v>
       </c>
@@ -3912,7 +3919,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -3933,7 +3940,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
@@ -3954,7 +3961,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>162</v>
       </c>
@@ -3978,7 +3985,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -4002,7 +4009,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
@@ -4023,7 +4030,7 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>153</v>
       </c>
@@ -4044,7 +4051,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>155</v>
       </c>
@@ -4065,15 +4072,15 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D29" s="6">
         <v>3.86</v>
@@ -4089,23 +4096,23 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="6"/>
       <c r="E30" s="19"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="6"/>
       <c r="E31" s="19"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>127</v>
       </c>
@@ -4126,7 +4133,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>131</v>
       </c>
@@ -4147,7 +4154,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>162</v>
       </c>
@@ -4171,7 +4178,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>135</v>
       </c>
@@ -4195,7 +4202,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>137</v>
       </c>
@@ -4216,7 +4223,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>139</v>
       </c>
@@ -4237,15 +4244,15 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D38" s="6">
         <v>3.86</v>
@@ -4261,15 +4268,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D39" s="6">
         <v>60.87</v>
@@ -4282,13 +4289,13 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>158</v>
       </c>
@@ -4309,7 +4316,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>160</v>
       </c>
@@ -4330,7 +4337,7 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>127</v>
       </c>
@@ -4351,7 +4358,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>162</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>135</v>
       </c>
@@ -4420,7 +4427,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>139</v>
       </c>
@@ -4441,15 +4448,15 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D49" s="6">
         <v>3.86</v>
@@ -4465,17 +4472,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>163</v>
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>164</v>
       </c>
@@ -4496,7 +4503,7 @@
         <v>81.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>127</v>
       </c>
@@ -4517,7 +4524,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>150</v>
       </c>
@@ -4538,7 +4545,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>133</v>
       </c>
@@ -4562,7 +4569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>135</v>
       </c>
@@ -4586,7 +4593,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>139</v>
       </c>
@@ -4607,7 +4614,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>166</v>
       </c>
@@ -4628,15 +4635,15 @@
         <v>117.41</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D59" s="6">
         <v>3.86</v>
@@ -4649,13 +4656,13 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>169</v>
       </c>
@@ -4676,15 +4683,15 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="D63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>171</v>
       </c>
@@ -4700,24 +4707,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -4740,7 +4747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -4761,19 +4768,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -4781,7 +4788,7 @@
         <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4794,7 +4801,7 @@
         <v>2633.84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -4802,7 +4809,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4815,7 +4822,7 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -4823,7 +4830,7 @@
         <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4836,7 +4843,7 @@
         <v>682.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -4844,7 +4851,7 @@
         <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4857,7 +4864,7 @@
         <v>441.65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -4865,7 +4872,7 @@
         <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4878,21 +4885,21 @@
         <v>3015.27</v>
       </c>
       <c r="G9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -4900,7 +4907,7 @@
         <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4914,7 +4921,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -4922,7 +4929,7 @@
         <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4935,18 +4942,18 @@
         <v>18047.43</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4959,11 +4966,11 @@
         <v>2250</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -4971,7 +4978,7 @@
         <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -4986,7 +4993,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -5007,18 +5014,18 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>194</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>195</v>
       </c>
@@ -5039,7 +5046,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -5061,7 +5068,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -5082,7 +5089,7 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -5124,7 +5131,7 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -5145,14 +5152,14 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>207</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>205</v>
       </c>
@@ -5173,7 +5180,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -5194,14 +5201,14 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -5222,7 +5229,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -5243,19 +5250,19 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -5272,7 +5279,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>215</v>
       </c>
@@ -5293,14 +5300,14 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>217</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -5321,7 +5328,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>221</v>
       </c>
@@ -5342,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -5358,14 +5365,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>195</v>
       </c>
@@ -5386,7 +5393,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>225</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -5428,14 +5435,14 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>230</v>
       </c>
@@ -5456,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>231</v>
       </c>
@@ -5477,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -5498,7 +5505,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>234</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>235</v>
       </c>
@@ -5529,7 +5536,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>237</v>
       </c>
@@ -5550,25 +5557,25 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>240</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>241</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -5610,14 +5617,14 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>245</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>246</v>
       </c>
@@ -5638,7 +5645,7 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -5659,14 +5666,14 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -5687,7 +5694,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -5708,14 +5715,14 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -5736,7 +5743,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>256</v>
       </c>
@@ -5757,12 +5764,12 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>214</v>
       </c>
       <c r="B63" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -5779,12 +5786,12 @@
       </c>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>214</v>
       </c>
       <c r="B64" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -5801,7 +5808,7 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>258</v>
       </c>
@@ -5823,7 +5830,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>260</v>
       </c>
@@ -5845,14 +5852,14 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>261</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>262</v>
       </c>
@@ -5874,7 +5881,7 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>264</v>
       </c>
@@ -5895,7 +5902,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>266</v>
       </c>
@@ -5916,7 +5923,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>268</v>
       </c>
@@ -5926,7 +5933,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>266</v>
       </c>
@@ -5947,7 +5954,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>270</v>
       </c>
@@ -5968,7 +5975,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>274</v>
       </c>
@@ -5997,7 +6004,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>275</v>
       </c>
@@ -6018,7 +6025,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -6039,7 +6046,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>279</v>
       </c>
@@ -6060,7 +6067,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>280</v>
       </c>
@@ -6081,7 +6088,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>282</v>
       </c>
@@ -6102,14 +6109,14 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>284</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>285</v>
       </c>
@@ -6130,10 +6137,10 @@
         <v>120</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>287</v>
       </c>
@@ -6155,7 +6162,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>289</v>
       </c>
@@ -6176,26 +6183,26 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>291</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>516</v>
       </c>
       <c r="C87" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -6209,19 +6216,19 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" t="s">
         <v>294</v>
-      </c>
-      <c r="B89" t="s">
-        <v>295</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -6237,12 +6244,12 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" t="s">
         <v>296</v>
-      </c>
-      <c r="B90" t="s">
-        <v>297</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -6258,14 +6265,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>195</v>
       </c>
@@ -6286,7 +6293,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>254</v>
       </c>
@@ -6307,9 +6314,9 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B94" t="s">
         <v>147</v>
@@ -6328,12 +6335,12 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>298</v>
+      </c>
+      <c r="B95" t="s">
         <v>299</v>
-      </c>
-      <c r="B95" t="s">
-        <v>300</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -6349,19 +6356,19 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" t="s">
         <v>302</v>
-      </c>
-      <c r="B97" t="s">
-        <v>303</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -6377,12 +6384,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" t="s">
         <v>304</v>
-      </c>
-      <c r="B98" t="s">
-        <v>305</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -6398,12 +6405,12 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" t="s">
         <v>306</v>
-      </c>
-      <c r="B99" t="s">
-        <v>307</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -6419,16 +6426,16 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B101" t="s">
         <v>93</v>
@@ -6447,15 +6454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>309</v>
+      </c>
+      <c r="B102" t="s">
         <v>310</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>311</v>
-      </c>
-      <c r="C102" t="s">
-        <v>312</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -6468,9 +6475,9 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B103" t="s">
         <v>93</v>
@@ -6489,22 +6496,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>314</v>
+      </c>
+      <c r="B105" t="s">
         <v>315</v>
       </c>
-      <c r="B105" t="s">
-        <v>316</v>
-      </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -6517,15 +6524,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B106" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -6539,22 +6546,22 @@
       </c>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" t="s">
         <v>318</v>
       </c>
-      <c r="B108" t="s">
-        <v>319</v>
-      </c>
       <c r="C108" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -6567,15 +6574,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B109">
         <v>1438</v>
       </c>
       <c r="C109" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -6588,15 +6595,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>321</v>
+      </c>
+      <c r="B110" t="s">
         <v>322</v>
       </c>
-      <c r="B110" t="s">
-        <v>323</v>
-      </c>
       <c r="C110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -6609,15 +6616,15 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>323</v>
+      </c>
+      <c r="B111" t="s">
         <v>324</v>
       </c>
-      <c r="B111" t="s">
-        <v>325</v>
-      </c>
       <c r="C111" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6630,15 +6637,15 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B112" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6651,15 +6658,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>424</v>
+      </c>
+      <c r="B113" t="s">
+        <v>425</v>
+      </c>
+      <c r="C113" t="s">
         <v>426</v>
-      </c>
-      <c r="B113" t="s">
-        <v>427</v>
-      </c>
-      <c r="C113" t="s">
-        <v>428</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -6672,15 +6679,15 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>325</v>
+      </c>
+      <c r="B114" t="s">
         <v>326</v>
       </c>
-      <c r="B114" t="s">
-        <v>327</v>
-      </c>
       <c r="C114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -6693,9 +6700,9 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B115" t="s">
         <v>93</v>
@@ -6715,15 +6722,15 @@
       </c>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>328</v>
+      </c>
+      <c r="B116" t="s">
         <v>329</v>
       </c>
-      <c r="B116" t="s">
-        <v>330</v>
-      </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -6736,15 +6743,15 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>330</v>
+      </c>
+      <c r="B117" t="s">
         <v>331</v>
       </c>
-      <c r="B117" t="s">
-        <v>332</v>
-      </c>
       <c r="C117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6757,15 +6764,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>332</v>
+      </c>
+      <c r="B118" t="s">
         <v>333</v>
       </c>
-      <c r="B118" t="s">
-        <v>334</v>
-      </c>
       <c r="C118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -6778,15 +6785,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119" t="s">
         <v>335</v>
       </c>
-      <c r="B119" t="s">
-        <v>336</v>
-      </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -6799,15 +6806,15 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B120" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -6821,15 +6828,15 @@
       </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B121" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -6843,15 +6850,15 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B122" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6865,33 +6872,33 @@
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>337</v>
+      </c>
+      <c r="B126" t="s">
         <v>338</v>
       </c>
-      <c r="B126" t="s">
-        <v>339</v>
-      </c>
       <c r="C126" t="s">
-        <v>340</v>
+        <v>517</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -6905,12 +6912,12 @@
       </c>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B127" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
@@ -6926,12 +6933,12 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
@@ -6947,9 +6954,9 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -6968,12 +6975,12 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -6989,12 +6996,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B131" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -7011,7 +7018,7 @@
       </c>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>227</v>
       </c>
@@ -7032,12 +7039,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B133" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -7053,9 +7060,9 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B134" t="s">
         <v>93</v>
@@ -7074,26 +7081,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B137" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C137" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -7107,15 +7114,15 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B138" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C138" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -7129,15 +7136,15 @@
       </c>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B139" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C139" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -7151,23 +7158,23 @@
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B142" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C142" t="s">
         <v>57</v>
@@ -7179,17 +7186,17 @@
         <v>401</v>
       </c>
       <c r="F142" s="10">
-        <f t="shared" ref="F142:F151" si="4">D142*E142</f>
+        <f t="shared" ref="F142:F152" si="4">D142*E142</f>
         <v>401</v>
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B143" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C143" t="s">
         <v>57</v>
@@ -7206,12 +7213,12 @@
       </c>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C144" t="s">
         <v>57</v>
@@ -7228,12 +7235,12 @@
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B145" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C145" t="s">
         <v>57</v>
@@ -7248,14 +7255,14 @@
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G145" s="19"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B146" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C146" t="s">
         <v>57</v>
@@ -7272,12 +7279,12 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B147" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C147" t="s">
         <v>57</v>
@@ -7294,12 +7301,12 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B148" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -7316,12 +7323,12 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B149" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C149" t="s">
         <v>57</v>
@@ -7338,12 +7345,12 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B150" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C150" t="s">
         <v>57</v>
@@ -7360,12 +7367,12 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B151" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -7374,20 +7381,41 @@
         <v>1</v>
       </c>
       <c r="E151" s="21">
-        <v>405.8</v>
+        <v>298.67</v>
       </c>
       <c r="F151" s="10">
         <f t="shared" si="4"/>
-        <v>405.8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="7" t="s">
+        <v>298.67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>514</v>
+      </c>
+      <c r="B152" t="s">
+        <v>513</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" s="21">
+        <v>112.5</v>
+      </c>
+      <c r="F152" s="10">
+        <f t="shared" si="4"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F153" s="10">
-        <f>SUM(F2:F151)</f>
-        <v>80310.417000000016</v>
+      <c r="F154" s="10">
+        <f>SUM(F2:F152)</f>
+        <v>80315.787000000011</v>
       </c>
     </row>
   </sheetData>
@@ -7397,29 +7425,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -7442,15 +7470,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>516</v>
       </c>
       <c r="C3" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7464,19 +7492,19 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" t="s">
         <v>294</v>
-      </c>
-      <c r="B5" t="s">
-        <v>295</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7492,12 +7520,12 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" t="s">
         <v>296</v>
-      </c>
-      <c r="B6" t="s">
-        <v>297</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7513,14 +7541,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -7541,7 +7569,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -7562,9 +7590,9 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
         <v>147</v>
@@ -7583,12 +7611,12 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
         <v>299</v>
-      </c>
-      <c r="B11" t="s">
-        <v>300</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7604,19 +7632,19 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" t="s">
         <v>302</v>
-      </c>
-      <c r="B13" t="s">
-        <v>303</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -7632,12 +7660,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" t="s">
         <v>304</v>
-      </c>
-      <c r="B14" t="s">
-        <v>305</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -7653,12 +7681,12 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" t="s">
         <v>306</v>
-      </c>
-      <c r="B15" t="s">
-        <v>307</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -7674,16 +7702,16 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -7702,15 +7730,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" t="s">
         <v>310</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>311</v>
-      </c>
-      <c r="C18" t="s">
-        <v>312</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7723,9 +7751,9 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -7744,22 +7772,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" t="s">
         <v>315</v>
       </c>
-      <c r="B21" t="s">
-        <v>316</v>
-      </c>
       <c r="C21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7772,15 +7800,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7794,22 +7822,22 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" t="s">
         <v>318</v>
       </c>
-      <c r="B24" t="s">
-        <v>319</v>
-      </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7822,15 +7850,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7843,15 +7871,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="s">
         <v>322</v>
       </c>
-      <c r="B26" t="s">
-        <v>323</v>
-      </c>
       <c r="C26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7861,15 +7889,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" t="s">
         <v>324</v>
       </c>
-      <c r="B27" t="s">
-        <v>325</v>
-      </c>
       <c r="C27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7882,15 +7910,15 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B28" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7903,15 +7931,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" t="s">
         <v>426</v>
-      </c>
-      <c r="B29" t="s">
-        <v>427</v>
-      </c>
-      <c r="C29" t="s">
-        <v>428</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7924,15 +7952,15 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" t="s">
         <v>326</v>
       </c>
-      <c r="B30" t="s">
-        <v>327</v>
-      </c>
       <c r="C30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -7945,9 +7973,9 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -7967,15 +7995,15 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" t="s">
         <v>329</v>
       </c>
-      <c r="B32" t="s">
-        <v>330</v>
-      </c>
       <c r="C32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -7988,15 +8016,15 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" t="s">
         <v>331</v>
       </c>
-      <c r="B33" t="s">
-        <v>332</v>
-      </c>
       <c r="C33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -8009,15 +8037,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B34" t="s">
         <v>333</v>
       </c>
-      <c r="B34" t="s">
-        <v>334</v>
-      </c>
       <c r="C34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -8030,15 +8058,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" t="s">
         <v>335</v>
       </c>
-      <c r="B35" t="s">
-        <v>336</v>
-      </c>
       <c r="C35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -8051,15 +8079,15 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B36" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -8073,15 +8101,15 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B37" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -8095,15 +8123,15 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -8117,7 +8145,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>171</v>
       </c>
@@ -8132,27 +8160,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -8175,15 +8205,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
         <v>338</v>
       </c>
-      <c r="B3" t="s">
-        <v>339</v>
-      </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>517</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8197,12 +8227,12 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -8218,12 +8248,12 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8239,9 +8269,9 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
@@ -8260,12 +8290,12 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -8281,12 +8311,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -8303,7 +8333,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>227</v>
       </c>
@@ -8324,12 +8354,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -8345,9 +8375,9 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8366,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>171</v>
       </c>
@@ -8381,28 +8411,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="101.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8419,22 +8449,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8447,15 +8477,15 @@
         <v>949</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8469,15 +8499,15 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -8490,15 +8520,15 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
@@ -8511,15 +8541,15 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8532,15 +8562,15 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>385</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>387</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8553,15 +8583,15 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8574,26 +8604,26 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -8609,12 +8639,12 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -8630,12 +8660,12 @@
         <v>468.18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -8651,12 +8681,12 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -8674,27 +8704,27 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" s="17"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
         <v>400</v>
-      </c>
-      <c r="B19" t="s">
-        <v>401</v>
-      </c>
-      <c r="C19" t="s">
-        <v>402</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -8707,15 +8737,15 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -8728,15 +8758,15 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8749,21 +8779,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E22" s="17"/>
       <c r="F22" s="14"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -8777,10 +8807,10 @@
       </c>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>171</v>
       </c>
@@ -8789,19 +8819,19 @@
         <v>9288.4599999999991</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8810,25 +8840,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8845,16 +8875,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -8873,73 +8903,73 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>443</v>
       </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>444</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8954,43 +8984,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>447</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>449</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -9005,95 +9035,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>450</v>
       </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>452</v>
       </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>453</v>
       </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>454</v>
       </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>456</v>
-      </c>
       <c r="B18" t="s">
         <v>93</v>
       </c>
@@ -9107,9 +9137,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -9124,15 +9154,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D20" s="10">
         <v>19.3</v>
@@ -9145,117 +9175,117 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>455</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>457</v>
       </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>458</v>
       </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>459</v>
       </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>460</v>
       </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>461</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>462</v>
-      </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
@@ -9269,9 +9299,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -9286,15 +9316,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D31" s="10">
         <v>19.3</v>
@@ -9307,82 +9337,82 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>464</v>
       </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>465</v>
       </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>466</v>
-      </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>467</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>468</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -9397,9 +9427,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -9415,9 +9445,9 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -9432,15 +9462,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D41" s="10">
         <v>19.3</v>
@@ -9453,70 +9483,70 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>468</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>469</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>470</v>
       </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>471</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>472</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>473</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -9532,9 +9562,9 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -9550,48 +9580,48 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>473</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>474</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>475</v>
-      </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>476</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>477</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -9606,9 +9636,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -9624,9 +9654,9 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -9642,26 +9672,26 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D58" s="10">
         <v>10.66</v>
@@ -9674,15 +9704,15 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D59" s="10">
         <v>2.38</v>
@@ -9695,15 +9725,15 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D60" s="10">
         <v>13.98</v>
@@ -9716,39 +9746,39 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C65">
         <v>14130</v>
@@ -9764,12 +9794,12 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B66" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C66">
         <v>10035</v>
@@ -9785,12 +9815,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C67">
         <v>10034</v>
@@ -9806,12 +9836,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B68" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C68">
         <v>90051</v>
@@ -9827,12 +9857,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -9848,7 +9878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>171</v>
       </c>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\LifeHack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306A5471-38FE-4911-91D9-048256CA3808}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -1599,7 +1598,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -1676,13 +1675,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1731,10 +1731,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2049,32 +2049,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2114,11 +2114,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2259,12 +2259,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2361,11 +2361,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2483,15 +2483,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2611,21 +2611,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2730,31 +2730,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2859,11 +2859,11 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2871,17 +2871,17 @@
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="19">
+      <c r="C52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="18">
         <v>1</v>
       </c>
       <c r="E52" s="6">
@@ -2892,17 +2892,17 @@
         <v>45.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="19">
+      <c r="C53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="18">
         <v>1</v>
       </c>
       <c r="E53" s="6">
@@ -2913,17 +2913,17 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="19">
+      <c r="C54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="18">
         <v>1</v>
       </c>
       <c r="E54" s="6">
@@ -2934,17 +2934,17 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="19">
+      <c r="C55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="18">
         <v>1</v>
       </c>
       <c r="E55" s="6">
@@ -2955,17 +2955,17 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="19">
+      <c r="C56" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="18">
         <v>1</v>
       </c>
       <c r="E56" s="6">
@@ -2976,22 +2976,22 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3012,17 +3012,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>237</v>
       </c>
       <c r="F62" s="14">
@@ -3043,7 +3043,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>237</v>
       </c>
       <c r="F63" s="14">
@@ -3064,7 +3064,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>237</v>
       </c>
       <c r="F64" s="14">
@@ -3085,7 +3085,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>237</v>
       </c>
       <c r="F65" s="14">
@@ -3106,17 +3106,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3180,19 +3180,19 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -3297,11 +3297,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>99</v>
       </c>
@@ -3309,7 +3309,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>100</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>15717.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>108</v>
       </c>
@@ -3416,18 +3416,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>115</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>117</v>
       </c>
@@ -3511,33 +3511,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F96" s="20">
+      <c r="F96" s="19">
         <f>SUM(F3:F90)</f>
         <v>49451.53</v>
       </c>
@@ -3549,20 +3549,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3583,12 +3583,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3630,17 +3630,17 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>124</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>129</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>131</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>141</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -3850,20 +3850,20 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
         <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>489</v>
       </c>
       <c r="D17" s="6">
         <v>19.309999999999999</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="14">
@@ -3871,13 +3871,13 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>146</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>148</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>162</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>153</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>155</v>
       </c>
@@ -4072,20 +4072,20 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
         <v>491</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>490</v>
       </c>
       <c r="D29" s="6">
         <v>3.86</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>0</v>
       </c>
       <c r="F29" s="14">
@@ -4096,23 +4096,23 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="C30" s="19"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>127</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>131</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>162</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>135</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>137</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>139</v>
       </c>
@@ -4244,20 +4244,20 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
         <v>491</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>490</v>
       </c>
       <c r="D38" s="6">
         <v>3.86</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>0</v>
       </c>
       <c r="F38" s="14">
@@ -4268,8 +4268,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
         <v>508</v>
       </c>
       <c r="B39" t="s">
@@ -4281,7 +4281,7 @@
       <c r="D39" s="6">
         <v>60.87</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="18">
         <v>1</v>
       </c>
       <c r="F39" s="14">
@@ -4289,13 +4289,13 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>158</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>160</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>127</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>162</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>135</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>139</v>
       </c>
@@ -4448,20 +4448,20 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
         <v>491</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>490</v>
       </c>
       <c r="D49" s="6">
         <v>3.86</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="18">
         <v>0</v>
       </c>
       <c r="F49" s="14">
@@ -4472,17 +4472,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>163</v>
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>164</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>81.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>127</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>150</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>133</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>135</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>139</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>166</v>
       </c>
@@ -4635,20 +4635,20 @@
         <v>117.41</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
         <v>491</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="18" t="s">
         <v>490</v>
       </c>
       <c r="D59" s="6">
         <v>3.86</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="18">
         <v>1</v>
       </c>
       <c r="F59" s="14">
@@ -4656,13 +4656,13 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>169</v>
       </c>
@@ -4683,15 +4683,15 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="D63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>171</v>
       </c>
@@ -4707,24 +4707,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="85.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -4768,19 +4768,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>2633.84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>682.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>441.65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -4888,18 +4888,18 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -4941,11 +4941,11 @@
         <f t="shared" si="0"/>
         <v>18047.43</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>500</v>
       </c>
@@ -4965,12 +4965,12 @@
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>502</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -5014,18 +5014,18 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>194</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>195</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -5152,14 +5152,14 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>207</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>205</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -5201,14 +5201,14 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -5250,14 +5250,14 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>215</v>
       </c>
@@ -5300,14 +5300,14 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>217</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>221</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -5365,14 +5365,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>195</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>225</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -5435,14 +5435,14 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>230</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>231</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>234</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>235</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>237</v>
       </c>
@@ -5557,25 +5557,25 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>240</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>241</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -5617,14 +5617,14 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>245</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>246</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -5666,14 +5666,14 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -5715,14 +5715,14 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>256</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>258</v>
       </c>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>260</v>
       </c>
@@ -5852,14 +5852,14 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>261</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>262</v>
       </c>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>264</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>266</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>268</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>266</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>270</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>274</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>275</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>279</v>
       </c>
@@ -6067,8 +6067,8 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="22" t="s">
         <v>280</v>
       </c>
       <c r="B79" t="s">
@@ -6088,8 +6088,8 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="22" t="s">
         <v>282</v>
       </c>
       <c r="B80" t="s">
@@ -6109,14 +6109,14 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>284</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>285</v>
       </c>
@@ -6136,11 +6136,11 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G82" s="19" t="s">
+      <c r="G82" s="18" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>287</v>
       </c>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>289</v>
       </c>
@@ -6183,18 +6183,18 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>429</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>291</v>
       </c>
@@ -6216,14 +6216,14 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>292</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>293</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>295</v>
       </c>
@@ -6265,14 +6265,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>195</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>254</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>298</v>
       </c>
@@ -6356,14 +6356,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>300</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>301</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>303</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>305</v>
       </c>
@@ -6426,14 +6426,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>307</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>308</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>309</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>312</v>
       </c>
@@ -6496,14 +6496,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>434</v>
       </c>
@@ -6546,14 +6546,14 @@
       </c>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>317</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>319</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>321</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>323</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>428</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>424</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>325</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>327</v>
       </c>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>328</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>330</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>334</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>496</v>
       </c>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>493</v>
       </c>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>492</v>
       </c>
@@ -6872,25 +6872,25 @@
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>511</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>336</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>337</v>
       </c>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>339</v>
       </c>
@@ -6933,11 +6933,11 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>504</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="21" t="s">
         <v>296</v>
       </c>
       <c r="C128" t="s">
@@ -6954,7 +6954,7 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>341</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>343</v>
       </c>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>227</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>344</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>346</v>
       </c>
@@ -7081,18 +7081,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>347</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>348</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>350</v>
       </c>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>352</v>
       </c>
@@ -7158,18 +7158,18 @@
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>354</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>355</v>
       </c>
@@ -7182,7 +7182,7 @@
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="E142" s="21">
+      <c r="E142" s="20">
         <v>401</v>
       </c>
       <c r="F142" s="10">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>357</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="D143">
         <v>1</v>
       </c>
-      <c r="E143" s="21">
+      <c r="E143" s="20">
         <v>219</v>
       </c>
       <c r="F143" s="10">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>359</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="E144" s="21">
+      <c r="E144" s="20">
         <v>219</v>
       </c>
       <c r="F144" s="10">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>361</v>
       </c>
@@ -7248,16 +7248,16 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="E145" s="21">
+      <c r="E145" s="20">
         <v>164</v>
       </c>
       <c r="F145" s="10">
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="G145" s="19"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="18"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>363</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="E146" s="21">
+      <c r="E146" s="20">
         <v>237</v>
       </c>
       <c r="F146" s="10">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>365</v>
       </c>
@@ -7292,7 +7292,7 @@
       <c r="D147">
         <v>1</v>
       </c>
-      <c r="E147" s="21">
+      <c r="E147" s="20">
         <v>237</v>
       </c>
       <c r="F147" s="10">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>367</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="E148" s="21">
+      <c r="E148" s="20">
         <v>456</v>
       </c>
       <c r="F148" s="10">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>369</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="E149" s="21">
+      <c r="E149" s="20">
         <v>237</v>
       </c>
       <c r="F149" s="10">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>371</v>
       </c>
@@ -7358,7 +7358,7 @@
       <c r="D150">
         <v>1</v>
       </c>
-      <c r="E150" s="21">
+      <c r="E150" s="20">
         <v>237</v>
       </c>
       <c r="F150" s="10">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>505</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="E151" s="21">
+      <c r="E151" s="20">
         <v>298.67</v>
       </c>
       <c r="F151" s="10">
@@ -7388,7 +7388,7 @@
         <v>298.67</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>514</v>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152" s="21">
+      <c r="E152" s="20">
         <v>112.5</v>
       </c>
       <c r="F152" s="10">
@@ -7409,7 +7409,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>171</v>
       </c>
@@ -7425,29 +7425,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>430</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>291</v>
       </c>
@@ -7492,14 +7492,14 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>292</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>295</v>
       </c>
@@ -7541,14 +7541,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>297</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>298</v>
       </c>
@@ -7632,14 +7632,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>300</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>303</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -7702,14 +7702,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>307</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>308</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -7772,14 +7772,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>314</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>434</v>
       </c>
@@ -7822,14 +7822,14 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>317</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>319</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>321</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>428</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>424</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>325</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>327</v>
       </c>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>328</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>330</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>332</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>496</v>
       </c>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>493</v>
       </c>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>492</v>
       </c>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>171</v>
       </c>
@@ -8160,29 +8160,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="79.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>510</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>339</v>
       </c>
@@ -8248,11 +8248,11 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>296</v>
       </c>
       <c r="C5" t="s">
@@ -8269,7 +8269,7 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>341</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>343</v>
       </c>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>227</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>344</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>346</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>171</v>
       </c>
@@ -8411,28 +8411,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="101.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8449,14 +8449,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>373</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>374</v>
       </c>
@@ -8469,7 +8469,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>949</v>
       </c>
       <c r="F4" s="14">
@@ -8477,7 +8477,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>376</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>377</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>379</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>381</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>383</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>386</v>
       </c>
@@ -8604,21 +8604,21 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>388</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>389</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>391</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>468.18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>393</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>395</v>
       </c>
@@ -8704,11 +8704,11 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E17" s="17"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>397</v>
       </c>
@@ -8716,7 +8716,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>398</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>479</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>402</v>
       </c>
@@ -8779,19 +8779,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E22" s="17"/>
       <c r="F22" s="14"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>404</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -8807,10 +8807,10 @@
       </c>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>171</v>
       </c>
@@ -8819,19 +8819,19 @@
         <v>9288.4599999999991</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8840,25 +8840,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8875,14 +8875,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>406</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -8903,18 +8903,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>436</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>441</v>
       </c>
@@ -8932,7 +8932,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>442</v>
       </c>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>443</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>444</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>445</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>446</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>447</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>448</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>450</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>451</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>452</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>453</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>454</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>449</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>408</v>
       </c>
@@ -9175,12 +9175,12 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>455</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>461</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>456</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>457</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>458</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>459</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>460</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>408</v>
       </c>
@@ -9337,12 +9337,12 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>462</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>463</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>465</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>466</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>467</v>
       </c>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>449</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -9483,14 +9483,14 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>439</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>468</v>
       </c>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>469</v>
       </c>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>470</v>
       </c>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>472</v>
       </c>
@@ -9580,12 +9580,12 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>473</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>474</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>475</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>476</v>
       </c>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>477</v>
       </c>
@@ -9672,18 +9672,18 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>410</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>412</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>414</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>423</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>435</v>
       </c>
@@ -9762,18 +9762,18 @@
       <c r="F62" s="10"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>417</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>419</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>420</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>421</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>422</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>171</v>
       </c>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\LifeHack\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FA3807-CDF5-46FA-8F2A-22B066EE125E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="2505" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -1013,12 +1014,6 @@
     <t>735-0747</t>
   </si>
   <si>
-    <t>Rocker switch</t>
-  </si>
-  <si>
-    <t>533-2964</t>
-  </si>
-  <si>
     <t>Arduino enclosure</t>
   </si>
   <si>
@@ -1593,12 +1588,18 @@
   </si>
   <si>
     <t>Includes: Objective basket if requested through Cairn research</t>
+  </si>
+  <si>
+    <t>907-7071</t>
+  </si>
+  <si>
+    <t>DPDT Rocker switch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -2049,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2876,7 +2877,7 @@
         <v>157</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>11</v>
@@ -2894,10 +2895,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>11</v>
@@ -2915,7 +2916,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>238</v>
@@ -2936,10 +2937,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>11</v>
@@ -2957,10 +2958,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>11</v>
@@ -3200,7 +3201,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3221,7 +3222,7 @@
         <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3549,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,13 +3853,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D17" s="6">
         <v>19.309999999999999</v>
@@ -4074,13 +4075,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D29" s="6">
         <v>3.86</v>
@@ -4105,7 +4106,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="6"/>
@@ -4246,13 +4247,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D38" s="6">
         <v>3.86</v>
@@ -4270,13 +4271,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D39" s="6">
         <v>60.87</v>
@@ -4450,13 +4451,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D49" s="6">
         <v>3.86</v>
@@ -4637,13 +4638,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D59" s="6">
         <v>3.86</v>
@@ -4707,11 +4708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4788,7 +4789,7 @@
         <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4809,7 +4810,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4830,7 +4831,7 @@
         <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4851,7 +4852,7 @@
         <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4872,7 +4873,7 @@
         <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4885,7 +4886,7 @@
         <v>3015.27</v>
       </c>
       <c r="G9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -4907,7 +4908,7 @@
         <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4929,7 +4930,7 @@
         <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4942,18 +4943,18 @@
         <v>18047.43</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4966,7 +4967,7 @@
         <v>2250</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H14" s="10"/>
     </row>
@@ -4978,7 +4979,7 @@
         <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -5262,7 +5263,7 @@
         <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -5769,7 +5770,7 @@
         <v>214</v>
       </c>
       <c r="B63" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -5791,7 +5792,7 @@
         <v>214</v>
       </c>
       <c r="B64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -6137,7 +6138,7 @@
         <v>120</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -6189,7 +6190,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
@@ -6199,10 +6200,10 @@
         <v>291</v>
       </c>
       <c r="B87" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -6526,10 +6527,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B106" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C106" t="s">
         <v>311</v>
@@ -6639,10 +6640,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B112" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C112" t="s">
         <v>311</v>
@@ -6660,13 +6661,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>422</v>
+      </c>
+      <c r="B113" t="s">
+        <v>423</v>
+      </c>
+      <c r="C113" t="s">
         <v>424</v>
-      </c>
-      <c r="B113" t="s">
-        <v>425</v>
-      </c>
-      <c r="C113" t="s">
-        <v>426</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -6681,10 +6682,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>325</v>
+        <v>518</v>
       </c>
       <c r="B114" t="s">
-        <v>326</v>
+        <v>517</v>
       </c>
       <c r="C114" t="s">
         <v>311</v>
@@ -6693,16 +6694,16 @@
         <v>1</v>
       </c>
       <c r="E114" s="10">
-        <v>5.25</v>
+        <v>7.6</v>
       </c>
       <c r="F114" s="10">
         <f t="shared" si="2"/>
-        <v>5.25</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B115" t="s">
         <v>93</v>
@@ -6724,10 +6725,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B116" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C116" t="s">
         <v>311</v>
@@ -6745,10 +6746,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B117" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C117" t="s">
         <v>311</v>
@@ -6766,10 +6767,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B118" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C118" t="s">
         <v>311</v>
@@ -6787,10 +6788,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C119" t="s">
         <v>311</v>
@@ -6808,10 +6809,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B120" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C120" t="s">
         <v>311</v>
@@ -6830,10 +6831,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B121" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C121" t="s">
         <v>311</v>
@@ -6852,10 +6853,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B122" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C122" t="s">
         <v>311</v>
@@ -6878,27 +6879,27 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B126" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -6914,10 +6915,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B127" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
@@ -6935,7 +6936,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>296</v>
@@ -6956,7 +6957,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -6980,7 +6981,7 @@
         <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -6998,10 +6999,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B131" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -7041,10 +7042,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B133" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -7062,7 +7063,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B134" t="s">
         <v>93</v>
@@ -7087,20 +7088,20 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B137" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -7116,13 +7117,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B138" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C138" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -7138,13 +7139,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B139" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C139" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -7164,17 +7165,17 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B142" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C142" t="s">
         <v>57</v>
@@ -7193,10 +7194,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C143" t="s">
         <v>57</v>
@@ -7215,10 +7216,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B144" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C144" t="s">
         <v>57</v>
@@ -7237,10 +7238,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B145" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C145" t="s">
         <v>57</v>
@@ -7259,10 +7260,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B146" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C146" t="s">
         <v>57</v>
@@ -7281,10 +7282,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B147" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C147" t="s">
         <v>57</v>
@@ -7303,10 +7304,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B148" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -7325,10 +7326,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B149" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C149" t="s">
         <v>57</v>
@@ -7347,10 +7348,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B150" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C150" t="s">
         <v>57</v>
@@ -7369,10 +7370,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B151" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -7390,10 +7391,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B152" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
@@ -7415,7 +7416,7 @@
       </c>
       <c r="F154" s="10">
         <f>SUM(F2:F152)</f>
-        <v>80315.787000000011</v>
+        <v>80318.137000000017</v>
       </c>
     </row>
   </sheetData>
@@ -7425,11 +7426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7442,7 +7443,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7475,10 +7476,10 @@
         <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7802,10 +7803,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C22" t="s">
         <v>311</v>
@@ -7912,10 +7913,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C28" t="s">
         <v>311</v>
@@ -7933,13 +7934,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>422</v>
+      </c>
+      <c r="B29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C29" t="s">
         <v>424</v>
-      </c>
-      <c r="B29" t="s">
-        <v>425</v>
-      </c>
-      <c r="C29" t="s">
-        <v>426</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7954,10 +7955,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>325</v>
+        <v>518</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>517</v>
       </c>
       <c r="C30" t="s">
         <v>311</v>
@@ -7966,16 +7967,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="10">
-        <v>5.25</v>
+        <v>7.6</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -7997,10 +7998,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C32" t="s">
         <v>311</v>
@@ -8018,10 +8019,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C33" t="s">
         <v>311</v>
@@ -8039,10 +8040,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s">
         <v>311</v>
@@ -8060,10 +8061,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
         <v>311</v>
@@ -8081,10 +8082,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C36" t="s">
         <v>311</v>
@@ -8103,10 +8104,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C37" t="s">
         <v>311</v>
@@ -8125,10 +8126,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C38" t="s">
         <v>311</v>
@@ -8151,7 +8152,7 @@
       </c>
       <c r="F41" s="10">
         <f>SUM(F3:F38)</f>
-        <v>7725.7400000000052</v>
+        <v>7728.0900000000056</v>
       </c>
     </row>
   </sheetData>
@@ -8160,7 +8161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8177,7 +8178,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -8207,13 +8208,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8229,10 +8230,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -8250,7 +8251,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>296</v>
@@ -8271,7 +8272,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
@@ -8295,7 +8296,7 @@
         <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -8313,10 +8314,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -8356,10 +8357,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -8377,7 +8378,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8411,7 +8412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8451,20 +8452,20 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8479,10 +8480,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
         <v>311</v>
@@ -8501,10 +8502,10 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>311</v>
@@ -8522,10 +8523,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>311</v>
@@ -8543,10 +8544,10 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>311</v>
@@ -8564,13 +8565,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>383</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8585,10 +8586,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>311</v>
@@ -8613,17 +8614,17 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -8641,10 +8642,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -8662,10 +8663,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -8683,10 +8684,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -8710,7 +8711,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="14"/>
@@ -8718,13 +8719,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" t="s">
         <v>398</v>
-      </c>
-      <c r="B19" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" t="s">
-        <v>400</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -8739,13 +8740,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -8760,13 +8761,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8786,14 +8787,14 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -8840,7 +8841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8877,14 +8878,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -8909,14 +8910,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -8934,7 +8935,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -8952,7 +8953,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -8969,7 +8970,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8986,7 +8987,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -9003,7 +9004,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -9020,7 +9021,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -9037,7 +9038,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -9054,7 +9055,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -9071,7 +9072,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -9088,7 +9089,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -9105,7 +9106,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -9122,7 +9123,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -9139,7 +9140,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -9156,13 +9157,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B20" t="s">
         <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D20" s="10">
         <v>19.3</v>
@@ -9177,12 +9178,12 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
@@ -9199,7 +9200,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -9216,7 +9217,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
@@ -9233,7 +9234,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -9250,7 +9251,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
@@ -9267,7 +9268,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
@@ -9284,7 +9285,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
@@ -9301,7 +9302,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -9318,13 +9319,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B31" t="s">
         <v>311</v>
       </c>
       <c r="C31" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D31" s="10">
         <v>19.3</v>
@@ -9339,12 +9340,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -9361,7 +9362,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
@@ -9378,7 +9379,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B36" t="s">
         <v>93</v>
@@ -9395,7 +9396,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
@@ -9412,7 +9413,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -9429,7 +9430,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -9447,7 +9448,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -9464,13 +9465,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
         <v>311</v>
       </c>
       <c r="C41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D41" s="10">
         <v>19.3</v>
@@ -9485,14 +9486,14 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
@@ -9510,7 +9511,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -9528,7 +9529,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -9546,7 +9547,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -9564,7 +9565,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -9582,12 +9583,12 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -9604,7 +9605,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -9621,7 +9622,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -9638,7 +9639,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -9656,7 +9657,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -9678,20 +9679,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s">
         <v>311</v>
       </c>
       <c r="C58" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D58" s="10">
         <v>10.66</v>
@@ -9706,13 +9707,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s">
         <v>311</v>
       </c>
       <c r="C59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D59" s="10">
         <v>2.38</v>
@@ -9727,13 +9728,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s">
         <v>311</v>
       </c>
       <c r="C60" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D60" s="10">
         <v>13.98</v>
@@ -9748,7 +9749,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D61" s="10"/>
       <c r="F61" s="10"/>
@@ -9756,7 +9757,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D62" s="10"/>
       <c r="F62" s="10"/>
@@ -9768,17 +9769,17 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C65">
         <v>14130</v>
@@ -9796,10 +9797,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B66" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C66">
         <v>10035</v>
@@ -9817,10 +9818,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C67">
         <v>10034</v>
@@ -9838,10 +9839,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C68">
         <v>90051</v>
@@ -9859,10 +9860,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B69" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
